--- a/results/econometric models/SES.xlsx
+++ b/results/econometric models/SES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">commodity</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG</t>
   </si>
   <si>
     <t xml:space="preserve">US NatGas</t>
@@ -455,13 +458,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000100006257461267</v>
+        <v>0.000100009179600342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.560679207671173</v>
+        <v>3.6337378212547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.186680527948213</v>
+        <v>0.456814189689329</v>
       </c>
     </row>
     <row r="6">
@@ -472,97 +475,131 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.409757438369693</v>
+        <v>0.000100006257461267</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8737093276927</v>
+        <v>0.560679207671173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.495235040908022</v>
+        <v>0.186680527948213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000100001378441586</v>
+        <v>0.409757438369693</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0163406353929</v>
+        <v>17.8737093276927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.425636044736918</v>
+        <v>0.495235040908022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000100007763523918</v>
+        <v>0.000100001378441586</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6950628148516</v>
+        <v>14.0163406353929</v>
       </c>
       <c r="E8" t="n">
-        <v>0.424467127085085</v>
+        <v>0.425636044736918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000100005919614626</v>
+        <v>0.000100007763523918</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4414137938359</v>
+        <v>14.6950628148516</v>
       </c>
       <c r="E9" t="n">
-        <v>0.416852553590413</v>
+        <v>0.424467127085085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000100003599011613</v>
+        <v>0.000100005919614626</v>
       </c>
       <c r="D10" t="n">
-        <v>0.56024328374887</v>
+        <v>14.4414137938359</v>
       </c>
       <c r="E10" t="n">
-        <v>0.186579355309536</v>
+        <v>0.416852553590413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0161625617933073</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.81768553873968</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.465621090899996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.000100003599011613</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.56024328374887</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.186579355309536</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="n">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.000100008406148393</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>12.89562608711</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>0.446049042338666</v>
       </c>
     </row>
